--- a/采购/WorkRecord.xlsx
+++ b/采购/WorkRecord.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="王超" sheetId="1" r:id="rId1"/>
@@ -64,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,11 +143,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -221,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,6 +261,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,21 +437,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" customHeight="1">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -467,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -484,7 +491,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -498,7 +505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -512,7 +519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -526,7 +533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -540,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -554,7 +561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -568,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -582,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -596,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -610,65 +617,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
     </row>
   </sheetData>
@@ -679,21 +686,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -716,13 +723,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>42186</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
@@ -730,7 +740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -744,7 +754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -758,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -786,7 +796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -800,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -814,7 +824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -828,7 +838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -842,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -856,7 +866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -870,7 +880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -884,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,7 +908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -912,7 +922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -926,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,7 +992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,12 +1167,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
